--- a/Data Files/TestData/NexCare/Master Data/Data Group/dataGroup - edit.xlsx
+++ b/Data Files/TestData/NexCare/Master Data/Data Group/dataGroup - edit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroup-edit" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
